--- a/chapter 6/TwoElementDataTable.xlsx
+++ b/chapter 6/TwoElementDataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curt\Desktop\Exercise Files\Chapter06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scarstruck/Git/excel_vlookups/chapter 6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{230B83E8-108E-4551-8BD5-41F6507C8DC3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29A5B5F-B797-0F4D-AD67-859930D050DD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24760" windowHeight="13220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OrdersAndRate" sheetId="4" r:id="rId1"/>
@@ -485,25 +485,25 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -521,7 +521,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -531,10 +531,15 @@
       <c r="C3" s="8">
         <v>0.02</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="D3" s="2">
+        <f t="dataTable" ref="D3:E6" dt2D="1" dtr="1" r1="B4" r2="B3"/>
+        <v>1306875</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1568250</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -544,10 +549,14 @@
       <c r="C4" s="8">
         <v>0.04</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="D4" s="2">
+        <v>1332500</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1599000</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -557,15 +566,23 @@
       <c r="C5" s="8">
         <v>0.06</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="D5" s="2">
+        <v>1358125</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1629750</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C6" s="8">
         <v>0.08</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="D6" s="2">
+        <v>1383750</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1660500</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
